--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -91,7 +91,7 @@
     <t>Fzd3</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H2">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I2">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J2">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N2">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O2">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P2">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q2">
-        <v>0.03458673627644444</v>
+        <v>0.02533088531422222</v>
       </c>
       <c r="R2">
-        <v>0.311280626488</v>
+        <v>0.227977967828</v>
       </c>
       <c r="S2">
-        <v>0.0008559766201586741</v>
+        <v>0.0005647965437613408</v>
       </c>
       <c r="T2">
-        <v>0.00115497156290656</v>
+        <v>0.0007655692930970135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H3">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I3">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J3">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.494381</v>
       </c>
       <c r="O3">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P3">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q3">
-        <v>0.08289696700133334</v>
+        <v>0.07989226493733334</v>
       </c>
       <c r="R3">
-        <v>0.746072703012</v>
+        <v>0.7190303844360001</v>
       </c>
       <c r="S3">
-        <v>0.002051591831852976</v>
+        <v>0.001781338257630365</v>
       </c>
       <c r="T3">
-        <v>0.002768218393677996</v>
+        <v>0.002414564829980621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H4">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I4">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J4">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N4">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O4">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P4">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q4">
-        <v>0.2808717696286667</v>
+        <v>0.003425777258222222</v>
       </c>
       <c r="R4">
-        <v>1.685230617772</v>
+        <v>0.030831995324</v>
       </c>
       <c r="S4">
-        <v>0.006951210028697372</v>
+        <v>7.638371620804612E-05</v>
       </c>
       <c r="T4">
-        <v>0.006252857630190966</v>
+        <v>0.0001035364473586911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1603853333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.481156</v>
+      </c>
+      <c r="I5">
+        <v>0.01032935781992836</v>
+      </c>
+      <c r="J5">
+        <v>0.01042870175281933</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.1664173333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.499252</v>
-      </c>
-      <c r="I5">
-        <v>0.009928329481286188</v>
-      </c>
-      <c r="J5">
-        <v>0.01026989293949489</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N5">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O5">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P5">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q5">
-        <v>0.002810289508</v>
+        <v>0.3546183874133332</v>
       </c>
       <c r="R5">
-        <v>0.025292605572</v>
+        <v>2.12771032448</v>
       </c>
       <c r="S5">
-        <v>6.955100057716449E-05</v>
+        <v>0.007906839302328607</v>
       </c>
       <c r="T5">
-        <v>9.384535271936738E-05</v>
+        <v>0.007145031182383009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I6">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J6">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N6">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O6">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P6">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q6">
-        <v>3.101470035526222</v>
+        <v>2.356906116085778</v>
       </c>
       <c r="R6">
-        <v>27.91323031973599</v>
+        <v>21.212155044772</v>
       </c>
       <c r="S6">
-        <v>0.07675733892073534</v>
+        <v>0.0525513582262289</v>
       </c>
       <c r="T6">
-        <v>0.1035688844882195</v>
+        <v>0.07123221027631182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I7">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J7">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.494381</v>
       </c>
       <c r="O7">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P7">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q7">
         <v>7.433556526862667</v>
@@ -883,10 +883,10 @@
         <v>66.90200874176399</v>
       </c>
       <c r="S7">
-        <v>0.1839708303427257</v>
+        <v>0.165744188651367</v>
       </c>
       <c r="T7">
-        <v>0.2482323377135785</v>
+        <v>0.2246626023872818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +915,40 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I8">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J8">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N8">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O8">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P8">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q8">
-        <v>25.18640008024733</v>
+        <v>0.3187506189417778</v>
       </c>
       <c r="R8">
-        <v>151.118400481484</v>
+        <v>2.868755570475999</v>
       </c>
       <c r="S8">
-        <v>0.6233305577704124</v>
+        <v>0.007107104456354134</v>
       </c>
       <c r="T8">
-        <v>0.5607077355158417</v>
+        <v>0.009633523778992523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I9">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J9">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N9">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O9">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P9">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q9">
-        <v>0.252004948676</v>
+        <v>32.99538234858666</v>
       </c>
       <c r="R9">
-        <v>2.268044538084</v>
+        <v>197.97229409152</v>
       </c>
       <c r="S9">
-        <v>0.006236793853771447</v>
+        <v>0.7356899563278411</v>
       </c>
       <c r="T9">
-        <v>0.008415322773046231</v>
+        <v>0.66480770350048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H10">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I10">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J10">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N10">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O10">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P10">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q10">
-        <v>0.3475842920476667</v>
+        <v>0.07008247051833333</v>
       </c>
       <c r="R10">
-        <v>2.085505752286</v>
+        <v>0.42049482311</v>
       </c>
       <c r="S10">
-        <v>0.008602257962392312</v>
+        <v>0.00156261167487845</v>
       </c>
       <c r="T10">
-        <v>0.007738033251038959</v>
+        <v>0.001412057171779645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H11">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I11">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J11">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.494381</v>
       </c>
       <c r="O11">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P11">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q11">
-        <v>0.8330847801815001</v>
+        <v>0.221036384345</v>
       </c>
       <c r="R11">
-        <v>4.998508681089</v>
+        <v>1.32621830607</v>
       </c>
       <c r="S11">
-        <v>0.02061776192890033</v>
+        <v>0.004928394107625865</v>
       </c>
       <c r="T11">
-        <v>0.01854640119667688</v>
+        <v>0.004453553212810195</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1148,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H12">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I12">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J12">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N12">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O12">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P12">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q12">
-        <v>2.82266052576475</v>
+        <v>0.009478031688333333</v>
       </c>
       <c r="R12">
-        <v>11.290642103059</v>
+        <v>0.05686819013</v>
       </c>
       <c r="S12">
-        <v>0.06985716713447003</v>
+        <v>0.00021132935042841</v>
       </c>
       <c r="T12">
-        <v>0.04189265070272973</v>
+        <v>0.0001909681910594851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1210,55 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.443735</v>
+      </c>
+      <c r="H13">
+        <v>0.88747</v>
+      </c>
+      <c r="I13">
+        <v>0.02857803451828042</v>
+      </c>
+      <c r="J13">
+        <v>0.01923525830411462</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.6724345</v>
-      </c>
-      <c r="H13">
-        <v>3.344869</v>
-      </c>
-      <c r="I13">
-        <v>0.09977614963106883</v>
-      </c>
-      <c r="J13">
-        <v>0.06880582656981911</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N13">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O13">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P13">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q13">
-        <v>0.0282424014015</v>
+        <v>0.9811158343999998</v>
       </c>
       <c r="R13">
-        <v>0.169454408409</v>
+        <v>3.924463337599999</v>
       </c>
       <c r="S13">
-        <v>0.0006989626053061569</v>
+        <v>0.02187569938534769</v>
       </c>
       <c r="T13">
-        <v>0.000628741419373538</v>
+        <v>0.0131786797284653</v>
       </c>
     </row>
   </sheetData>
